--- a/Project/Pega.xlsx
+++ b/Project/Pega.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B609A6D-8D19-4822-880D-5427297C03E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DDFF77-5429-41E2-886B-6A7BA96079A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="1" r:id="rId1"/>
     <sheet name="Chi" sheetId="2" r:id="rId2"/>
     <sheet name="Linh kiện" sheetId="3" r:id="rId3"/>
-    <sheet name="Nhân Công" sheetId="4" r:id="rId4"/>
+    <sheet name="Nhân công + Ứng tiền" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Mua_sam_linh_kien">'Linh kiện'!$P$3</definedName>
-    <definedName name="Nhan_cong">'Nhân Công'!$N$5</definedName>
+    <definedName name="Nhan_cong">'Nhân công + Ứng tiền'!$N$5</definedName>
+    <definedName name="Pega_thu">Thu!$P$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>PEGA Thu</t>
   </si>
@@ -82,9 +83,6 @@
     <t>i.MX8 CPU+dev board</t>
   </si>
   <si>
-    <t>Nhân công</t>
-  </si>
-  <si>
     <t>A Khơ ứng tiền</t>
   </si>
   <si>
@@ -94,20 +92,32 @@
     <t>Vitech</t>
   </si>
   <si>
-    <t>Đã thanh toán</t>
-  </si>
-  <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán</t>
+    <t>Cọc du lịch</t>
+  </si>
+  <si>
+    <t>Phí vận chuyển + VAT i.MX</t>
+  </si>
+  <si>
+    <t>A Khơ</t>
+  </si>
+  <si>
+    <t>Nhân công + Ứng tiền</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
+  </si>
+  <si>
+    <t>Màn hình LCD 5inch</t>
+  </si>
+  <si>
+    <t>A Lực</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F5666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -206,35 +222,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,14 +250,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,7 +567,7 @@
   <dimension ref="L2:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,63 +588,63 @@
       </c>
     </row>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>44412</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="8">
         <v>79000000</v>
       </c>
     </row>
     <row r="7" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -633,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="K3:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,89 +673,92 @@
   <sheetData>
     <row r="3" spans="11:16" x14ac:dyDescent="0.25">
       <c r="L3" s="1"/>
-      <c r="O3" s="15">
+      <c r="O3" s="11">
         <f>SUM(L7:L12)</f>
-        <v>38908500</v>
-      </c>
-      <c r="P3" s="16" t="s">
+        <v>65373500</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="11:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="28"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="11:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="28"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="1">
+        <f>Pega_thu-O3</f>
+        <v>13626500</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="29"/>
+      <c r="M6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <f>Mua_sam_linh_kien</f>
-        <v>8908500</v>
-      </c>
-      <c r="M7" s="8" t="s">
+        <v>10373500</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <f>Nhan_cong</f>
-        <v>30000000</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>55000000</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="27"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="27"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="27"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="27"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="11:16" x14ac:dyDescent="0.25">
       <c r="L13" s="1"/>
@@ -742,13 +771,13 @@
     <mergeCell ref="K4:M5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
       <formula1>"Đã thanh toán, Chưa thanh toán"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K8" location="'Nhân Công'!A1" display="Nhân công" xr:uid="{2009E5CF-46BD-4B96-AAA4-E3C7C35E85FD}"/>
     <hyperlink ref="K7" location="'Linh kiện'!A1" display="Mua sắm linh kiện" xr:uid="{969864DA-9A2D-48B8-9F7E-22D91903C0DE}"/>
+    <hyperlink ref="K8" location="'Nhân công + Ứng tiền'!A1" display="Nhân công + Ứng tiền" xr:uid="{028C730B-76D0-4E61-AD4B-13CF72559913}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,15 +785,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49A106-6870-47BE-BEAE-1CF90A276984}">
-  <dimension ref="J3:Q7"/>
+  <dimension ref="J3:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="14" style="21" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="16" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="11.140625" customWidth="1"/>
@@ -773,78 +803,135 @@
   </cols>
   <sheetData>
     <row r="3" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="15">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="P3" s="11">
         <f>SUM(M6:M17)</f>
-        <v>8908500</v>
-      </c>
-      <c r="Q3" s="16" t="s">
+        <v>10373500</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="10:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="18">
         <v>1</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="19">
         <v>2372000</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="19">
         <v>2372000</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="10:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="J7" s="22" t="s">
+    <row r="7" spans="10:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="J7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>1</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="19">
         <v>6536500</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="19">
         <v>6536500</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="18" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="8" spans="10:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>890000</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" ref="M8:M9" si="0">(K8*L8)</f>
+        <v>890000</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>575000</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>575000</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="27"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="27"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J12" s="27"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -858,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23444351-FC48-44BA-96E7-BEFB47C6803D}">
   <dimension ref="J5:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,86 +957,92 @@
   </cols>
   <sheetData>
     <row r="5" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="N5" s="11">
+        <f>SUM(K8:K15)</f>
+        <v>55000000</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="15">
-        <f>SUM(K8:K15)</f>
-        <v>30000000</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10">
-        <v>5000000</v>
-      </c>
-      <c r="L8" s="8" t="s">
+      <c r="K9" s="8">
+        <v>25000000</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J9" s="8" t="s">
+      <c r="K10" s="8">
+        <v>25000000</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10">
-        <v>25000000</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J10" s="8"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J11" s="8"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
